--- a/data/trans_orig/P21D_6_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P21D_6_R-Clase-trans_orig.xlsx
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>2656</v>
+        <v>2588</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002171248256834205</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01131012178400628</v>
+        <v>0.01101956981811472</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>3078</v>
+        <v>2641</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001063908473941949</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.006422743861513668</v>
+        <v>0.005511651270344785</v>
       </c>
     </row>
     <row r="5">
@@ -817,7 +817,7 @@
         <v>234314</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>232168</v>
+        <v>232236</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>234824</v>
@@ -826,7 +826,7 @@
         <v>0.9978287517431658</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.988689878215994</v>
+        <v>0.9889804301818851</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -838,7 +838,7 @@
         <v>478724</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>476156</v>
+        <v>476593</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>479234</v>
@@ -847,7 +847,7 @@
         <v>0.998936091526058</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9935772561384864</v>
+        <v>0.9944883487296552</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5242</v>
+        <v>5089</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007675406933746429</v>
@@ -954,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0266164865832843</v>
+        <v>0.02584286623225791</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>2713</v>
+        <v>2902</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.002670231105826758</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01379827705490809</v>
+        <v>0.01475719061924567</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -984,19 +984,19 @@
         <v>2037</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5511</v>
+        <v>5843</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.005174759616075098</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001325521345050243</v>
+        <v>0.001336205040749952</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01400405498723497</v>
+        <v>0.01484778373615778</v>
       </c>
     </row>
     <row r="8">
@@ -1013,7 +1013,7 @@
         <v>195416</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>191685</v>
+        <v>191838</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>196927</v>
@@ -1022,7 +1022,7 @@
         <v>0.9923245930662535</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9733835134167159</v>
+        <v>0.9741571337677422</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1034,7 +1034,7 @@
         <v>196097</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>193909</v>
+        <v>193720</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>196622</v>
@@ -1043,7 +1043,7 @@
         <v>0.9973297688941734</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9862017229450919</v>
+        <v>0.9852428093807541</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1055,19 +1055,19 @@
         <v>391512</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>388038</v>
+        <v>387706</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>393027</v>
+        <v>393023</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9948252403839249</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9859959450127651</v>
+        <v>0.9851522162638422</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9986744786549497</v>
+        <v>0.99866379495925</v>
       </c>
     </row>
     <row r="9">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5373</v>
+        <v>4887</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005267679226221417</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0284512927465442</v>
+        <v>0.0258789050324463</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5163</v>
+        <v>4843</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003611195172213047</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01874489192778344</v>
+        <v>0.01758082788769631</v>
       </c>
     </row>
     <row r="11">
@@ -1222,16 +1222,16 @@
         <v>187842</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>183464</v>
+        <v>183950</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>188837</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9947323207737785</v>
+        <v>0.9947323207737786</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9715487072534542</v>
+        <v>0.9741210949675538</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1256,16 +1256,16 @@
         <v>274463</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>270295</v>
+        <v>270615</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>275458</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9963888048277871</v>
+        <v>0.9963888048277869</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9812551080722165</v>
+        <v>0.9824191721123033</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -1360,19 +1360,19 @@
         <v>4857</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1848</v>
+        <v>1155</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13777</v>
+        <v>12644</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009508331135855638</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003617032345196245</v>
+        <v>0.002260442891661877</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02696949798134178</v>
+        <v>0.02475160833137958</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -1381,19 +1381,19 @@
         <v>6518</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3334</v>
+        <v>3379</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11708</v>
+        <v>12022</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01685634624845204</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.008621770434472154</v>
+        <v>0.00873828224406268</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03027893182110536</v>
+        <v>0.03109237467129311</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -1402,19 +1402,19 @@
         <v>11375</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6244</v>
+        <v>5682</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>19339</v>
+        <v>19214</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.01267405322191648</v>
+        <v>0.01267405322191647</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006957121839766395</v>
+        <v>0.006331019482391593</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0215478615885314</v>
+        <v>0.02140884904018412</v>
       </c>
     </row>
     <row r="14">
@@ -1431,19 +1431,19 @@
         <v>505975</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>497055</v>
+        <v>498188</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>508984</v>
+        <v>509677</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9904916688641444</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9730305020186567</v>
+        <v>0.9752483916686203</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9963829676548038</v>
+        <v>0.9977395571083383</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>528</v>
@@ -1452,19 +1452,19 @@
         <v>380148</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>374958</v>
+        <v>374644</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>383332</v>
+        <v>383287</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.983143653751548</v>
+        <v>0.9831436537515482</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9697210681788946</v>
+        <v>0.9689076253287066</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9913782295655277</v>
+        <v>0.9912617177559372</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1018</v>
@@ -1473,19 +1473,19 @@
         <v>886123</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>878159</v>
+        <v>878284</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>891254</v>
+        <v>891816</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9873259467780835</v>
+        <v>0.9873259467780834</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9784521384114686</v>
+        <v>0.978591150959816</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9930428781602335</v>
+        <v>0.9936689805176088</v>
       </c>
     </row>
     <row r="15">
@@ -1580,16 +1580,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6530</v>
+        <v>7669</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.004784584935818536</v>
+        <v>0.004784584935818537</v>
       </c>
       <c r="H16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02464275245388364</v>
+        <v>0.02894004042535729</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -1598,19 +1598,19 @@
         <v>9278</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5538</v>
+        <v>5483</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14869</v>
+        <v>15646</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02392088875516218</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01427742324935002</v>
+        <v>0.01413693075030083</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03833331656698188</v>
+        <v>0.04033777043176986</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -1619,19 +1619,19 @@
         <v>10546</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6314</v>
+        <v>6455</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16978</v>
+        <v>17475</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01615351781130888</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009670699137506357</v>
+        <v>0.009886742579030567</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02600458562399851</v>
+        <v>0.02676553101824379</v>
       </c>
     </row>
     <row r="17">
@@ -1648,7 +1648,7 @@
         <v>263736</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>258474</v>
+        <v>257335</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>265004</v>
@@ -1657,7 +1657,7 @@
         <v>0.9952154150641813</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.975357247546116</v>
+        <v>0.9710599595746428</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1669,19 +1669,19 @@
         <v>378603</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>373012</v>
+        <v>372235</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>382343</v>
+        <v>382398</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9760791112448378</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9616666834330183</v>
+        <v>0.9596622295682304</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.98572257675065</v>
+        <v>0.9858630692496992</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>810</v>
@@ -1690,19 +1690,19 @@
         <v>642339</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>635907</v>
+        <v>635410</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>646571</v>
+        <v>646430</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9838464821886914</v>
+        <v>0.9838464821886911</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9739954143760015</v>
+        <v>0.9732344689817563</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9903293008624936</v>
+        <v>0.9901132574209693</v>
       </c>
     </row>
     <row r="18">
@@ -1807,19 +1807,19 @@
         <v>2424</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5837</v>
+        <v>6234</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.006824197713301603</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.001715357038289248</v>
+        <v>0.001716595658512706</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01643168783643078</v>
+        <v>0.01755047029051796</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -1828,19 +1828,19 @@
         <v>2424</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5965</v>
+        <v>5830</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.005128656782795103</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.001284021055353478</v>
+        <v>0.001282748379265618</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01262092698655596</v>
+        <v>0.01233347474461756</v>
       </c>
     </row>
     <row r="20">
@@ -1870,19 +1870,19 @@
         <v>352799</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>349386</v>
+        <v>348989</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>354614</v>
+        <v>354613</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9931758022866983</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.983568312163569</v>
+        <v>0.9824495297094826</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9982846429617107</v>
+        <v>0.9982834043414872</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>537</v>
@@ -1891,19 +1891,19 @@
         <v>470236</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>466695</v>
+        <v>466830</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>472053</v>
+        <v>472054</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9948713432172049</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9873790730134441</v>
+        <v>0.9876665252553821</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9987159789446464</v>
+        <v>0.9987172516207343</v>
       </c>
     </row>
     <row r="21">
@@ -1995,19 +1995,19 @@
         <v>8631</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3994</v>
+        <v>4095</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17460</v>
+        <v>16858</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.005665651518477003</v>
+        <v>0.005665651518477004</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002621812557817344</v>
+        <v>0.002687915487913266</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01146067424801056</v>
+        <v>0.01106582087136935</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>31</v>
@@ -2016,19 +2016,19 @@
         <v>19255</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>13416</v>
+        <v>13920</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>27007</v>
+        <v>27147</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.01168515439123087</v>
+        <v>0.01168515439123086</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.008141343889836509</v>
+        <v>0.008447658814493027</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01638958131370433</v>
+        <v>0.01647422561593704</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>39</v>
@@ -2037,19 +2037,19 @@
         <v>27887</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>19892</v>
+        <v>19479</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>39057</v>
+        <v>38676</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.00879345630373593</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006272662491998593</v>
+        <v>0.006142267138714761</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0123158303406205</v>
+        <v>0.01219560660640826</v>
       </c>
     </row>
     <row r="23">
@@ -2066,19 +2066,19 @@
         <v>1514817</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1505988</v>
+        <v>1506590</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1519454</v>
+        <v>1519353</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9943343484815229</v>
+        <v>0.994334348481523</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9885393257519907</v>
+        <v>0.9889341791286307</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9973781874421825</v>
+        <v>0.9973120845120867</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2283</v>
@@ -2087,19 +2087,19 @@
         <v>1628582</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1620830</v>
+        <v>1620690</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1634421</v>
+        <v>1633917</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9883148456087691</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9836104186862956</v>
+        <v>0.9835257743840624</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9918586561101633</v>
+        <v>0.9915523411855069</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3696</v>
@@ -2108,19 +2108,19 @@
         <v>3143397</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3132227</v>
+        <v>3132608</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3151392</v>
+        <v>3151805</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9912065436962639</v>
+        <v>0.9912065436962642</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9876841696593797</v>
+        <v>0.9878043933935919</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9937273375080016</v>
+        <v>0.9938577328612852</v>
       </c>
     </row>
     <row r="24">
